--- a/si-hardware-downled/si-hardware-downled.xlsx
+++ b/si-hardware-downled/si-hardware-downled.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\THANGNM\3.PROJECT-KICAD\si-hardware-downlight-led\si-hardware-downled\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E2CC164-8B07-4ACE-A551-277EAE94D1BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8ED9903C-7DD4-42C3-8FD0-EF1EF935746F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{BF624962-F03F-43C8-AA55-10E5EA35F1D9}"/>
   </bookViews>
@@ -181,9 +181,6 @@
     <t>SI_Mosfet_Buck:BP2866</t>
   </si>
   <si>
-    <t>https://linhkienhatech.com/products/linh-kien-ic-driver-led-bp2866b-sop-7</t>
-  </si>
-  <si>
     <t>U2</t>
   </si>
   <si>
@@ -197,13 +194,16 @@
   </si>
   <si>
     <t>Số Lượng</t>
+  </si>
+  <si>
+    <t>https://dientutuonglai.com/ic-driver-led-bp2866b-sop-7.html</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -343,6 +343,14 @@
       <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="33">
@@ -642,7 +650,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="42">
+  <cellStyleXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
@@ -685,12 +693,14 @@
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="42"/>
   </cellXfs>
-  <cellStyles count="42">
+  <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
@@ -724,6 +734,7 @@
     <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
     <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
     <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Hyperlink" xfId="42" builtinId="8"/>
     <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
     <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
     <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
@@ -1067,13 +1078,15 @@
   <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R26" sqref="R26"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="2" max="2" width="33.42578125" customWidth="1"/>
     <col min="3" max="4" width="0" hidden="1" customWidth="1"/>
     <col min="6" max="7" width="0" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="71.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
@@ -1090,7 +1103,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F1" t="s">
         <v>4</v>
@@ -1118,7 +1131,7 @@
       <c r="E2">
         <v>1</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H2" s="2" t="s">
         <v>11</v>
       </c>
     </row>
@@ -1158,7 +1171,7 @@
       <c r="E4">
         <v>1</v>
       </c>
-      <c r="H4" t="s">
+      <c r="H4" s="2" t="s">
         <v>19</v>
       </c>
     </row>
@@ -1178,7 +1191,7 @@
       <c r="E5">
         <v>1</v>
       </c>
-      <c r="H5" t="s">
+      <c r="H5" s="2" t="s">
         <v>23</v>
       </c>
     </row>
@@ -1198,7 +1211,7 @@
       <c r="E6">
         <v>2</v>
       </c>
-      <c r="H6" t="s">
+      <c r="H6" s="2" t="s">
         <v>27</v>
       </c>
     </row>
@@ -1218,7 +1231,7 @@
       <c r="E7">
         <v>1</v>
       </c>
-      <c r="H7" t="s">
+      <c r="H7" s="2" t="s">
         <v>31</v>
       </c>
     </row>
@@ -1238,7 +1251,7 @@
       <c r="E8">
         <v>1</v>
       </c>
-      <c r="H8" t="s">
+      <c r="H8" s="2" t="s">
         <v>35</v>
       </c>
     </row>
@@ -1258,7 +1271,7 @@
       <c r="E9">
         <v>1</v>
       </c>
-      <c r="H9" t="s">
+      <c r="H9" s="2" t="s">
         <v>39</v>
       </c>
     </row>
@@ -1278,7 +1291,7 @@
       <c r="E10">
         <v>1</v>
       </c>
-      <c r="H10" t="s">
+      <c r="H10" s="2" t="s">
         <v>42</v>
       </c>
     </row>
@@ -1298,7 +1311,7 @@
       <c r="E11">
         <v>1</v>
       </c>
-      <c r="H11" t="s">
+      <c r="H11" s="2" t="s">
         <v>46</v>
       </c>
     </row>
@@ -1318,7 +1331,7 @@
       <c r="E12">
         <v>2</v>
       </c>
-      <c r="H12" t="s">
+      <c r="H12" s="2" t="s">
         <v>49</v>
       </c>
     </row>
@@ -1335,28 +1348,41 @@
       <c r="E13">
         <v>1</v>
       </c>
-      <c r="H13" t="s">
-        <v>53</v>
+      <c r="H13" s="2" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
+        <v>53</v>
+      </c>
+      <c r="B14" t="s">
         <v>54</v>
       </c>
-      <c r="B14" t="s">
+      <c r="D14" t="s">
         <v>55</v>
-      </c>
-      <c r="D14" t="s">
-        <v>56</v>
       </c>
       <c r="E14">
         <v>1</v>
       </c>
       <c r="H14" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="H13" r:id="rId1" xr:uid="{3CBCA04C-8FBC-451A-BDD0-1887EDFFAD16}"/>
+    <hyperlink ref="H2" r:id="rId2" xr:uid="{07E49516-2559-4528-AF90-D9675CE0F780}"/>
+    <hyperlink ref="H7" r:id="rId3" xr:uid="{949E7265-A210-48FE-9FD9-ABB8CB146CBE}"/>
+    <hyperlink ref="H11" r:id="rId4" xr:uid="{6FCD5CE7-4217-44B8-BBCD-BE6708FAC555}"/>
+    <hyperlink ref="H12" r:id="rId5" xr:uid="{087FCF0B-33F0-4250-B4EE-68141876799E}"/>
+    <hyperlink ref="H4" r:id="rId6" xr:uid="{0AB2FB0C-E7F1-4B0A-A3C0-9EF447B922CE}"/>
+    <hyperlink ref="H5" r:id="rId7" xr:uid="{4CA42F9B-3A7F-449A-9075-64D51C53B4A8}"/>
+    <hyperlink ref="H6" r:id="rId8" xr:uid="{546CBF39-C291-4911-B8D6-FC5FE8AEEBF3}"/>
+    <hyperlink ref="H8" r:id="rId9" xr:uid="{04A8F014-B008-43DE-934E-FADA5C0452B4}"/>
+    <hyperlink ref="H9" r:id="rId10" xr:uid="{B6D6DCD1-1B0F-4124-8CFA-9093038A7FB6}"/>
+    <hyperlink ref="H10" r:id="rId11" xr:uid="{4BCBF0A3-D852-4428-99E4-7AEA36A0812E}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>